--- a/Starter of the Day QA - 12 mis.xlsx
+++ b/Starter of the Day QA - 12 mis.xlsx
@@ -2592,7 +2592,7 @@
   <dimension ref="A1:E377"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2800,7 +2800,7 @@
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>77</v>
       </c>
     </row>

--- a/Starter of the Day QA - 12 mis.xlsx
+++ b/Starter of the Day QA - 12 mis.xlsx
@@ -2279,6 +2279,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2286,8 +2288,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2591,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E377"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2611,34 +2611,34 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2647,16 +2647,16 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2664,7 +2664,7 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2688,7 +2688,7 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2704,7 +2704,7 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2720,7 +2720,7 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2744,7 +2744,7 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2752,7 +2752,7 @@
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2768,7 +2768,7 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2776,7 +2776,7 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2784,7 +2784,7 @@
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2800,7 +2800,7 @@
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2808,7 +2808,7 @@
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2824,7 +2824,7 @@
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2832,7 +2832,7 @@
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2840,7 +2840,7 @@
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2848,7 +2848,7 @@
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2864,19 +2864,19 @@
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2892,7 +2892,7 @@
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2900,7 +2900,7 @@
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3097,8 +3097,8 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -3349,8 +3349,8 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -3593,8 +3593,8 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
+      <c r="A124" s="7"/>
+      <c r="B124" s="7"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -3845,8 +3845,8 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
+      <c r="A156" s="7"/>
+      <c r="B156" s="7"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -4089,8 +4089,8 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="5"/>
-      <c r="B187" s="5"/>
+      <c r="A187" s="7"/>
+      <c r="B187" s="7"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
@@ -4341,8 +4341,8 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="5"/>
-      <c r="B219" s="5"/>
+      <c r="A219" s="7"/>
+      <c r="B219" s="7"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
@@ -4593,8 +4593,8 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="5"/>
-      <c r="B251" s="5"/>
+      <c r="A251" s="7"/>
+      <c r="B251" s="7"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
@@ -4837,8 +4837,8 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="5"/>
-      <c r="B282" s="5"/>
+      <c r="A282" s="7"/>
+      <c r="B282" s="7"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
@@ -5089,8 +5089,8 @@
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="5"/>
-      <c r="B314" s="5"/>
+      <c r="A314" s="7"/>
+      <c r="B314" s="7"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
@@ -5333,8 +5333,8 @@
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="5"/>
-      <c r="B345" s="5"/>
+      <c r="A345" s="7"/>
+      <c r="B345" s="7"/>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
@@ -5585,8 +5585,8 @@
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="5"/>
-      <c r="B377" s="5"/>
+      <c r="A377" s="7"/>
+      <c r="B377" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/Starter of the Day QA - 12 mis.xlsx
+++ b/Starter of the Day QA - 12 mis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="18195" windowHeight="12210"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="18195" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2271,7 +2271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2281,13 +2281,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2591,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2611,10 +2614,10 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2623,10 +2626,10 @@
       <c r="B2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2635,10 +2638,10 @@
       <c r="B3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2647,10 +2650,10 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2869,8 +2872,8 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -2908,7 +2911,7 @@
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2916,7 +2919,7 @@
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2924,7 +2927,7 @@
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2932,7 +2935,7 @@
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2940,7 +2943,7 @@
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2948,7 +2951,7 @@
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2956,7 +2959,7 @@
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2964,7 +2967,7 @@
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2972,7 +2975,7 @@
       <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2980,7 +2983,7 @@
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2988,7 +2991,7 @@
       <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3020,7 +3023,7 @@
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3028,7 +3031,7 @@
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3044,7 +3047,7 @@
       <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3052,7 +3055,7 @@
       <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3068,7 +3071,7 @@
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3084,7 +3087,7 @@
       <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3092,13 +3095,13 @@
       <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -3112,7 +3115,7 @@
       <c r="A63" t="s">
         <v>104</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3120,7 +3123,7 @@
       <c r="A64" t="s">
         <v>105</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3349,8 +3352,8 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -3593,8 +3596,8 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -3845,8 +3848,8 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="7"/>
-      <c r="B156" s="7"/>
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -4089,8 +4092,8 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="7"/>
-      <c r="B187" s="7"/>
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
@@ -4341,8 +4344,8 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="7"/>
-      <c r="B219" s="7"/>
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
@@ -4593,8 +4596,8 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="7"/>
-      <c r="B251" s="7"/>
+      <c r="A251" s="5"/>
+      <c r="B251" s="5"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
@@ -4837,8 +4840,8 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="7"/>
-      <c r="B282" s="7"/>
+      <c r="A282" s="5"/>
+      <c r="B282" s="5"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
@@ -5089,8 +5092,8 @@
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="7"/>
-      <c r="B314" s="7"/>
+      <c r="A314" s="5"/>
+      <c r="B314" s="5"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
@@ -5333,8 +5336,8 @@
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="7"/>
-      <c r="B345" s="7"/>
+      <c r="A345" s="5"/>
+      <c r="B345" s="5"/>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
@@ -5585,16 +5588,11 @@
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="7"/>
-      <c r="B377" s="7"/>
+      <c r="A377" s="5"/>
+      <c r="B377" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A282:B282"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="A345:B345"/>
-    <mergeCell ref="A377:B377"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
@@ -5606,6 +5604,11 @@
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A282:B282"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A345:B345"/>
+    <mergeCell ref="A377:B377"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Starter of the Day QA - 12 mis.xlsx
+++ b/Starter of the Day QA - 12 mis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="636">
   <si>
     <t>Ionawr 1</t>
   </si>
@@ -2189,6 +2189,9 @@
       </rPr>
       <t>fed</t>
     </r>
+  </si>
+  <si>
+    <t>where? Typoghraphy set?</t>
   </si>
 </sst>
 </file>
@@ -2281,16 +2284,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2594,8 +2597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2603,7 +2606,7 @@
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="110.5703125" customWidth="1"/>
     <col min="3" max="3" width="1.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2872,8 +2875,8 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -2919,7 +2922,7 @@
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="5" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3100,8 +3103,8 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -3127,23 +3130,23 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>106</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>107</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>108</v>
       </c>
@@ -3151,23 +3154,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>109</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>110</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>111</v>
       </c>
@@ -3175,79 +3181,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>112</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>113</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>114</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>115</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>116</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>117</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>118</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>119</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>120</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>121</v>
       </c>
@@ -3259,7 +3265,7 @@
       <c r="A81" t="s">
         <v>122</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="3" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3267,7 +3273,7 @@
       <c r="A82" t="s">
         <v>123</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="3" t="s">
         <v>632</v>
       </c>
     </row>
@@ -3275,7 +3281,7 @@
       <c r="A83" t="s">
         <v>124</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>633</v>
       </c>
     </row>
@@ -3283,7 +3289,7 @@
       <c r="A84" t="s">
         <v>125</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3291,7 +3297,7 @@
       <c r="A85" t="s">
         <v>126</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3307,7 +3313,7 @@
       <c r="A87" t="s">
         <v>128</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3315,7 +3321,7 @@
       <c r="A88" t="s">
         <v>129</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3323,7 +3329,7 @@
       <c r="A89" t="s">
         <v>130</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3331,7 +3337,7 @@
       <c r="A90" t="s">
         <v>131</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3347,19 +3353,19 @@
       <c r="A92" t="s">
         <v>133</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>154</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="3" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3367,7 +3373,7 @@
       <c r="A95" t="s">
         <v>155</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="5" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3375,7 +3381,7 @@
       <c r="A96" t="s">
         <v>156</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="3" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3596,8 +3602,8 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -3848,8 +3854,8 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -4092,8 +4098,8 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="5"/>
-      <c r="B187" s="5"/>
+      <c r="A187" s="8"/>
+      <c r="B187" s="8"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
@@ -4344,8 +4350,8 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="5"/>
-      <c r="B219" s="5"/>
+      <c r="A219" s="8"/>
+      <c r="B219" s="8"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
@@ -4596,8 +4602,8 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="5"/>
-      <c r="B251" s="5"/>
+      <c r="A251" s="8"/>
+      <c r="B251" s="8"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
@@ -4840,8 +4846,8 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="5"/>
-      <c r="B282" s="5"/>
+      <c r="A282" s="8"/>
+      <c r="B282" s="8"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
@@ -5092,8 +5098,8 @@
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="5"/>
-      <c r="B314" s="5"/>
+      <c r="A314" s="8"/>
+      <c r="B314" s="8"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
@@ -5336,8 +5342,8 @@
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="5"/>
-      <c r="B345" s="5"/>
+      <c r="A345" s="8"/>
+      <c r="B345" s="8"/>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
@@ -5588,11 +5594,16 @@
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="5"/>
-      <c r="B377" s="5"/>
+      <c r="A377" s="8"/>
+      <c r="B377" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A282:B282"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A345:B345"/>
+    <mergeCell ref="A377:B377"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
@@ -5604,11 +5615,6 @@
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A282:B282"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="A345:B345"/>
-    <mergeCell ref="A377:B377"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Starter of the Day QA - 12 mis.xlsx
+++ b/Starter of the Day QA - 12 mis.xlsx
@@ -2597,8 +2597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3389,7 +3389,7 @@
       <c r="A97" t="s">
         <v>157</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
       <c r="A98" t="s">
         <v>158</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="5" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       <c r="A99" t="s">
         <v>159</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="3" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3413,7 +3413,7 @@
       <c r="A100" t="s">
         <v>160</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="3" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       <c r="A102" t="s">
         <v>162</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="3" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       <c r="A103" t="s">
         <v>163</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="3" t="s">
         <v>634</v>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
       <c r="A104" t="s">
         <v>164</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="3" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       <c r="A105" t="s">
         <v>165</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="3" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
       <c r="A106" t="s">
         <v>166</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="3" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3469,7 +3469,7 @@
       <c r="A107" t="s">
         <v>167</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="5" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       <c r="A108" t="s">
         <v>168</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="5" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3485,7 +3485,7 @@
       <c r="A109" t="s">
         <v>169</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="3" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3493,7 +3493,7 @@
       <c r="A110" t="s">
         <v>170</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="3" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       <c r="A111" t="s">
         <v>171</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="3" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       <c r="A112" t="s">
         <v>172</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="3" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       <c r="A113" t="s">
         <v>173</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="3" t="s">
         <v>200</v>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       <c r="A114" t="s">
         <v>174</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="3" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       <c r="A116" t="s">
         <v>176</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="4" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       <c r="A118" t="s">
         <v>178</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="3" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       <c r="A119" t="s">
         <v>179</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="3" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       <c r="A120" t="s">
         <v>180</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="3" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3589,7 +3589,7 @@
       <c r="A122" t="s">
         <v>182</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="3" t="s">
         <v>206</v>
       </c>
     </row>

--- a/Starter of the Day QA - 12 mis.xlsx
+++ b/Starter of the Day QA - 12 mis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18195" windowHeight="12150"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2597,8 +2597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3597,7 +3597,7 @@
       <c r="A123" t="s">
         <v>183</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       <c r="A125" t="s">
         <v>208</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="3" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       <c r="A127" t="s">
         <v>210</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="3" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       <c r="A129" t="s">
         <v>212</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="3" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
       <c r="A130" t="s">
         <v>213</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="3" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3665,7 +3665,7 @@
       <c r="A132" t="s">
         <v>215</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="3" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3673,7 +3673,7 @@
       <c r="A133" t="s">
         <v>216</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       <c r="A134" t="s">
         <v>217</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="3" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
       <c r="A135" t="s">
         <v>218</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="3" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       <c r="A136" t="s">
         <v>219</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="3" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       <c r="A137" t="s">
         <v>220</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="3" t="s">
         <v>248</v>
       </c>
     </row>
@@ -3713,7 +3713,7 @@
       <c r="A138" t="s">
         <v>221</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="3" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3721,7 +3721,7 @@
       <c r="A139" t="s">
         <v>222</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="3" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       <c r="A140" t="s">
         <v>223</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="3" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       <c r="A141" t="s">
         <v>224</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="3" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3745,7 +3745,7 @@
       <c r="A142" t="s">
         <v>225</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="3" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       <c r="A143" t="s">
         <v>226</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="3" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       <c r="A144" t="s">
         <v>227</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="3" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3769,7 +3769,7 @@
       <c r="A145" t="s">
         <v>228</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="5" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       <c r="A146" t="s">
         <v>229</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="3" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
       <c r="A147" t="s">
         <v>230</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="3" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       <c r="A148" t="s">
         <v>231</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="3" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       <c r="A149" t="s">
         <v>232</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="3" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3809,7 +3809,7 @@
       <c r="A150" t="s">
         <v>233</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="3" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       <c r="A151" t="s">
         <v>234</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="3" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       <c r="A152" t="s">
         <v>235</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="3" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3833,7 +3833,7 @@
       <c r="A153" t="s">
         <v>236</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="3" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       <c r="A154" t="s">
         <v>237</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" s="5" t="s">
         <v>264</v>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       <c r="A157" t="s">
         <v>265</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="3" t="s">
         <v>295</v>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
       <c r="A158" t="s">
         <v>266</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
       <c r="A159" t="s">
         <v>267</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
       <c r="A162" t="s">
         <v>270</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="3" t="s">
         <v>299</v>
       </c>
     </row>
@@ -3917,7 +3917,7 @@
       <c r="A164" t="s">
         <v>272</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="3" t="s">
         <v>300</v>
       </c>
     </row>
@@ -3925,7 +3925,7 @@
       <c r="A165" t="s">
         <v>273</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="3" t="s">
         <v>301</v>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       <c r="A166" t="s">
         <v>274</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="3" t="s">
         <v>302</v>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
       <c r="A167" t="s">
         <v>275</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       <c r="A168" t="s">
         <v>276</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="5" t="s">
         <v>304</v>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       <c r="A169" t="s">
         <v>277</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="3" t="s">
         <v>305</v>
       </c>
     </row>

--- a/Starter of the Day QA - 12 mis.xlsx
+++ b/Starter of the Day QA - 12 mis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="12090"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="18195" windowHeight="12030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2287,13 +2287,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2597,8 +2597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B169" sqref="B169"/>
+    <sheetView tabSelected="1" topLeftCell="B178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2617,10 +2617,10 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="6"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2629,10 +2629,10 @@
       <c r="B2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2641,10 +2641,10 @@
       <c r="B3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2653,10 +2653,10 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2875,8 +2875,8 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -3103,8 +3103,8 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -3358,8 +3358,8 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -3602,8 +3602,8 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="8"/>
-      <c r="B124" s="8"/>
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -3854,8 +3854,8 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="8"/>
-      <c r="B156" s="8"/>
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -3965,7 +3965,7 @@
       <c r="A170" t="s">
         <v>278</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="3" t="s">
         <v>306</v>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
       <c r="A171" t="s">
         <v>279</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="3" t="s">
         <v>307</v>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       <c r="A172" t="s">
         <v>280</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="4" t="s">
         <v>308</v>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       <c r="A173" t="s">
         <v>281</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="3" t="s">
         <v>309</v>
       </c>
     </row>
@@ -3997,7 +3997,7 @@
       <c r="A174" t="s">
         <v>282</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       <c r="A175" t="s">
         <v>283</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="3" t="s">
         <v>310</v>
       </c>
     </row>
@@ -4013,7 +4013,7 @@
       <c r="A176" t="s">
         <v>284</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="3" t="s">
         <v>311</v>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
       <c r="A177" t="s">
         <v>285</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="3" t="s">
         <v>312</v>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       <c r="A178" t="s">
         <v>286</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="3" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       <c r="A182" t="s">
         <v>290</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       <c r="A183" t="s">
         <v>291</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="3" t="s">
         <v>314</v>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       <c r="A184" t="s">
         <v>292</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="3" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4093,19 +4093,19 @@
       <c r="A186" t="s">
         <v>294</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="3" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="8"/>
-      <c r="B187" s="8"/>
+      <c r="A187" s="6"/>
+      <c r="B187" s="6"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>317</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="3" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4350,8 +4350,8 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="8"/>
-      <c r="B219" s="8"/>
+      <c r="A219" s="6"/>
+      <c r="B219" s="6"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
@@ -4602,8 +4602,8 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="8"/>
-      <c r="B251" s="8"/>
+      <c r="A251" s="6"/>
+      <c r="B251" s="6"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
@@ -4846,8 +4846,8 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="8"/>
-      <c r="B282" s="8"/>
+      <c r="A282" s="6"/>
+      <c r="B282" s="6"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
@@ -5098,8 +5098,8 @@
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="8"/>
-      <c r="B314" s="8"/>
+      <c r="A314" s="6"/>
+      <c r="B314" s="6"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
@@ -5342,8 +5342,8 @@
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="8"/>
-      <c r="B345" s="8"/>
+      <c r="A345" s="6"/>
+      <c r="B345" s="6"/>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
@@ -5594,16 +5594,11 @@
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="8"/>
-      <c r="B377" s="8"/>
+      <c r="A377" s="6"/>
+      <c r="B377" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A282:B282"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="A345:B345"/>
-    <mergeCell ref="A377:B377"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
@@ -5615,6 +5610,11 @@
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A282:B282"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A345:B345"/>
+    <mergeCell ref="A377:B377"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Starter of the Day QA - 12 mis.xlsx
+++ b/Starter of the Day QA - 12 mis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="18195" windowHeight="12030"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="18195" windowHeight="11970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2287,13 +2287,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2597,8 +2597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B178" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B188" sqref="B188"/>
+    <sheetView tabSelected="1" topLeftCell="A198" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2617,10 +2617,10 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="7"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2629,10 +2629,10 @@
       <c r="B2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2641,10 +2641,10 @@
       <c r="B3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2653,10 +2653,10 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2875,8 +2875,8 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -3103,8 +3103,8 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -3358,8 +3358,8 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -3602,8 +3602,8 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="6"/>
-      <c r="B124" s="6"/>
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -3854,8 +3854,8 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="6"/>
-      <c r="B156" s="6"/>
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -4098,8 +4098,8 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="6"/>
-      <c r="B187" s="6"/>
+      <c r="A187" s="8"/>
+      <c r="B187" s="8"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
@@ -4113,7 +4113,7 @@
       <c r="A189" t="s">
         <v>318</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="3" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4121,7 +4121,7 @@
       <c r="A190" t="s">
         <v>319</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="3" t="s">
         <v>350</v>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       <c r="A191" t="s">
         <v>320</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="3" t="s">
         <v>351</v>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       <c r="A192" t="s">
         <v>321</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="3" t="s">
         <v>352</v>
       </c>
     </row>
@@ -4145,7 +4145,7 @@
       <c r="A193" t="s">
         <v>322</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" s="5" t="s">
         <v>354</v>
       </c>
     </row>
@@ -4153,7 +4153,7 @@
       <c r="A194" t="s">
         <v>323</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="3" t="s">
         <v>353</v>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       <c r="A195" t="s">
         <v>324</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B195" s="5" t="s">
         <v>355</v>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       <c r="A196" t="s">
         <v>325</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" s="5" t="s">
         <v>356</v>
       </c>
     </row>
@@ -4177,7 +4177,7 @@
       <c r="A197" t="s">
         <v>326</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" s="5" t="s">
         <v>357</v>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       <c r="A198" t="s">
         <v>327</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" s="5" t="s">
         <v>358</v>
       </c>
     </row>
@@ -4193,7 +4193,7 @@
       <c r="A199" t="s">
         <v>328</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B199" s="5" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4201,7 +4201,7 @@
       <c r="A200" t="s">
         <v>329</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" s="5" t="s">
         <v>359</v>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       <c r="A201" t="s">
         <v>330</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B201" s="5" t="s">
         <v>360</v>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
       <c r="A202" t="s">
         <v>331</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B202" s="5" t="s">
         <v>361</v>
       </c>
     </row>
@@ -4225,7 +4225,7 @@
       <c r="A203" t="s">
         <v>332</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B203" s="5" t="s">
         <v>362</v>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
       <c r="A204" t="s">
         <v>333</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B204" s="5" t="s">
         <v>630</v>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       <c r="A205" t="s">
         <v>334</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B205" s="5" t="s">
         <v>363</v>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
       <c r="A206" t="s">
         <v>335</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B206" s="5" t="s">
         <v>364</v>
       </c>
     </row>
@@ -4350,8 +4350,8 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="6"/>
-      <c r="B219" s="6"/>
+      <c r="A219" s="8"/>
+      <c r="B219" s="8"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
@@ -4602,8 +4602,8 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="6"/>
-      <c r="B251" s="6"/>
+      <c r="A251" s="8"/>
+      <c r="B251" s="8"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
@@ -4846,8 +4846,8 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="6"/>
-      <c r="B282" s="6"/>
+      <c r="A282" s="8"/>
+      <c r="B282" s="8"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
@@ -5098,8 +5098,8 @@
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="6"/>
-      <c r="B314" s="6"/>
+      <c r="A314" s="8"/>
+      <c r="B314" s="8"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
@@ -5342,8 +5342,8 @@
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="6"/>
-      <c r="B345" s="6"/>
+      <c r="A345" s="8"/>
+      <c r="B345" s="8"/>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
@@ -5594,11 +5594,16 @@
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="6"/>
-      <c r="B377" s="6"/>
+      <c r="A377" s="8"/>
+      <c r="B377" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A282:B282"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A345:B345"/>
+    <mergeCell ref="A377:B377"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
@@ -5610,11 +5615,6 @@
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A282:B282"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="A345:B345"/>
-    <mergeCell ref="A377:B377"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Starter of the Day QA - 12 mis.xlsx
+++ b/Starter of the Day QA - 12 mis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="18195" windowHeight="11970"/>
+    <workbookView xWindow="480" yWindow="540" windowWidth="18195" windowHeight="11910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2274,7 +2275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2287,13 +2288,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2597,8 +2604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B206" sqref="B206"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2617,10 +2624,10 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="6"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2629,10 +2636,10 @@
       <c r="B2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2641,10 +2648,10 @@
       <c r="B3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2653,10 +2660,10 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2875,8 +2882,8 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -3103,8 +3110,8 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -3358,8 +3365,8 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -3602,8 +3609,8 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="8"/>
-      <c r="B124" s="8"/>
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -3854,8 +3861,8 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="8"/>
-      <c r="B156" s="8"/>
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -4098,8 +4105,8 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="8"/>
-      <c r="B187" s="8"/>
+      <c r="A187" s="6"/>
+      <c r="B187" s="6"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
@@ -4257,7 +4264,7 @@
       <c r="A207" t="s">
         <v>336</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B207" s="5" t="s">
         <v>365</v>
       </c>
     </row>
@@ -4265,7 +4272,7 @@
       <c r="A208" t="s">
         <v>337</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B208" s="5" t="s">
         <v>366</v>
       </c>
     </row>
@@ -4273,7 +4280,7 @@
       <c r="A209" t="s">
         <v>338</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="3" t="s">
         <v>367</v>
       </c>
     </row>
@@ -4281,7 +4288,7 @@
       <c r="A210" t="s">
         <v>339</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B210" s="5" t="s">
         <v>368</v>
       </c>
     </row>
@@ -4289,7 +4296,7 @@
       <c r="A211" t="s">
         <v>340</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B211" s="5" t="s">
         <v>370</v>
       </c>
     </row>
@@ -4297,7 +4304,7 @@
       <c r="A212" t="s">
         <v>341</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B212" s="5" t="s">
         <v>369</v>
       </c>
     </row>
@@ -4305,7 +4312,7 @@
       <c r="A213" t="s">
         <v>342</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B213" s="5" t="s">
         <v>371</v>
       </c>
     </row>
@@ -4313,7 +4320,7 @@
       <c r="A214" t="s">
         <v>343</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B214" s="5" t="s">
         <v>372</v>
       </c>
     </row>
@@ -4321,7 +4328,7 @@
       <c r="A215" t="s">
         <v>344</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B215" s="5" t="s">
         <v>374</v>
       </c>
     </row>
@@ -4329,7 +4336,7 @@
       <c r="A216" t="s">
         <v>345</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B216" s="5" t="s">
         <v>373</v>
       </c>
     </row>
@@ -4337,7 +4344,7 @@
       <c r="A217" t="s">
         <v>346</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B217" s="5" t="s">
         <v>375</v>
       </c>
     </row>
@@ -4350,14 +4357,14 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="8"/>
-      <c r="B219" s="8"/>
+      <c r="A219" s="6"/>
+      <c r="B219" s="6"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>376</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="9" t="s">
         <v>407</v>
       </c>
     </row>
@@ -4365,7 +4372,7 @@
       <c r="A221" t="s">
         <v>377</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="9" t="s">
         <v>408</v>
       </c>
     </row>
@@ -4373,7 +4380,7 @@
       <c r="A222" t="s">
         <v>378</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" s="9" t="s">
         <v>409</v>
       </c>
     </row>
@@ -4381,7 +4388,7 @@
       <c r="A223" t="s">
         <v>379</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="9" t="s">
         <v>410</v>
       </c>
     </row>
@@ -4389,7 +4396,7 @@
       <c r="A224" t="s">
         <v>380</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="9" t="s">
         <v>411</v>
       </c>
     </row>
@@ -4397,7 +4404,7 @@
       <c r="A225" t="s">
         <v>381</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" s="9" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4405,7 +4412,7 @@
       <c r="A226" t="s">
         <v>382</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="9" t="s">
         <v>413</v>
       </c>
     </row>
@@ -4413,7 +4420,7 @@
       <c r="A227" t="s">
         <v>383</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" s="9" t="s">
         <v>414</v>
       </c>
     </row>
@@ -4421,7 +4428,7 @@
       <c r="A228" t="s">
         <v>384</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" s="9" t="s">
         <v>415</v>
       </c>
     </row>
@@ -4437,7 +4444,7 @@
       <c r="A230" t="s">
         <v>386</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" s="10" t="s">
         <v>416</v>
       </c>
     </row>
@@ -4445,7 +4452,7 @@
       <c r="A231" t="s">
         <v>387</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="9" t="s">
         <v>417</v>
       </c>
     </row>
@@ -4453,7 +4460,7 @@
       <c r="A232" t="s">
         <v>388</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="9" t="s">
         <v>418</v>
       </c>
     </row>
@@ -4461,7 +4468,7 @@
       <c r="A233" t="s">
         <v>389</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="9" t="s">
         <v>419</v>
       </c>
     </row>
@@ -4469,7 +4476,7 @@
       <c r="A234" t="s">
         <v>390</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="9" t="s">
         <v>420</v>
       </c>
     </row>
@@ -4477,7 +4484,7 @@
       <c r="A235" t="s">
         <v>391</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="9" t="s">
         <v>421</v>
       </c>
     </row>
@@ -4485,7 +4492,7 @@
       <c r="A236" t="s">
         <v>392</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="9" t="s">
         <v>422</v>
       </c>
     </row>
@@ -4493,7 +4500,7 @@
       <c r="A237" t="s">
         <v>393</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" s="9" t="s">
         <v>423</v>
       </c>
     </row>
@@ -4602,8 +4609,8 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="8"/>
-      <c r="B251" s="8"/>
+      <c r="A251" s="6"/>
+      <c r="B251" s="6"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
@@ -4846,8 +4853,8 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="8"/>
-      <c r="B282" s="8"/>
+      <c r="A282" s="6"/>
+      <c r="B282" s="6"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
@@ -5098,8 +5105,8 @@
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="8"/>
-      <c r="B314" s="8"/>
+      <c r="A314" s="6"/>
+      <c r="B314" s="6"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
@@ -5342,8 +5349,8 @@
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="8"/>
-      <c r="B345" s="8"/>
+      <c r="A345" s="6"/>
+      <c r="B345" s="6"/>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
@@ -5594,16 +5601,11 @@
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="8"/>
-      <c r="B377" s="8"/>
+      <c r="A377" s="6"/>
+      <c r="B377" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A282:B282"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="A345:B345"/>
-    <mergeCell ref="A377:B377"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
@@ -5615,6 +5617,11 @@
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A282:B282"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A345:B345"/>
+    <mergeCell ref="A377:B377"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Starter of the Day QA - 12 mis.xlsx
+++ b/Starter of the Day QA - 12 mis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="540" windowWidth="18195" windowHeight="11910"/>
+    <workbookView xWindow="480" yWindow="720" windowWidth="18195" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2275,12 +2274,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2288,19 +2284,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2604,8 +2600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B237" sqref="B237"/>
+    <sheetView tabSelected="1" topLeftCell="A256" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B267" sqref="B267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2633,7 +2629,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -2645,7 +2641,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -2669,7 +2665,7 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2677,7 +2673,7 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2685,7 +2681,7 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2693,7 +2689,7 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2701,7 +2697,7 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2717,7 +2713,7 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2733,7 +2729,7 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2749,7 +2745,7 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2757,7 +2753,7 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2765,7 +2761,7 @@
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2773,7 +2769,7 @@
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2781,7 +2777,7 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2789,7 +2785,7 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2797,7 +2793,7 @@
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2805,7 +2801,7 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2813,7 +2809,7 @@
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2821,7 +2817,7 @@
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2829,7 +2825,7 @@
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2837,7 +2833,7 @@
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2845,7 +2841,7 @@
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2853,7 +2849,7 @@
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2861,7 +2857,7 @@
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2869,7 +2865,7 @@
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2877,19 +2873,19 @@
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2897,7 +2893,7 @@
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2905,7 +2901,7 @@
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2913,7 +2909,7 @@
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2921,7 +2917,7 @@
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2929,7 +2925,7 @@
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2937,7 +2933,7 @@
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2945,7 +2941,7 @@
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2953,7 +2949,7 @@
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2961,7 +2957,7 @@
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2969,7 +2965,7 @@
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2977,7 +2973,7 @@
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2985,7 +2981,7 @@
       <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2993,7 +2989,7 @@
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3001,7 +2997,7 @@
       <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3033,7 +3029,7 @@
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3041,7 +3037,7 @@
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3057,7 +3053,7 @@
       <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3065,7 +3061,7 @@
       <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3081,7 +3077,7 @@
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3097,7 +3093,7 @@
       <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3105,13 +3101,13 @@
       <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -3125,7 +3121,7 @@
       <c r="A63" t="s">
         <v>104</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3133,7 +3129,7 @@
       <c r="A64" t="s">
         <v>105</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3141,7 +3137,7 @@
       <c r="A65" t="s">
         <v>106</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3149,7 +3145,7 @@
       <c r="A66" t="s">
         <v>107</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3165,7 +3161,7 @@
       <c r="A68" t="s">
         <v>109</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3173,7 +3169,7 @@
       <c r="A69" t="s">
         <v>110</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>139</v>
       </c>
       <c r="D69" t="s">
@@ -3192,7 +3188,7 @@
       <c r="A71" t="s">
         <v>112</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3200,7 +3196,7 @@
       <c r="A72" t="s">
         <v>113</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3208,7 +3204,7 @@
       <c r="A73" t="s">
         <v>114</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3216,7 +3212,7 @@
       <c r="A74" t="s">
         <v>115</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3224,7 +3220,7 @@
       <c r="A75" t="s">
         <v>116</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3232,7 +3228,7 @@
       <c r="A76" t="s">
         <v>117</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3240,7 +3236,7 @@
       <c r="A77" t="s">
         <v>118</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3248,7 +3244,7 @@
       <c r="A78" t="s">
         <v>119</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3256,7 +3252,7 @@
       <c r="A79" t="s">
         <v>120</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3272,7 +3268,7 @@
       <c r="A81" t="s">
         <v>122</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3280,7 +3276,7 @@
       <c r="A82" t="s">
         <v>123</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>632</v>
       </c>
     </row>
@@ -3288,7 +3284,7 @@
       <c r="A83" t="s">
         <v>124</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>633</v>
       </c>
     </row>
@@ -3296,7 +3292,7 @@
       <c r="A84" t="s">
         <v>125</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3304,7 +3300,7 @@
       <c r="A85" t="s">
         <v>126</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3320,7 +3316,7 @@
       <c r="A87" t="s">
         <v>128</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3328,7 +3324,7 @@
       <c r="A88" t="s">
         <v>129</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3336,7 +3332,7 @@
       <c r="A89" t="s">
         <v>130</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3344,7 +3340,7 @@
       <c r="A90" t="s">
         <v>131</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3360,19 +3356,19 @@
       <c r="A92" t="s">
         <v>133</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
+      <c r="A93" s="9"/>
+      <c r="B93" s="9"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>154</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3380,7 +3376,7 @@
       <c r="A95" t="s">
         <v>155</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3388,7 +3384,7 @@
       <c r="A96" t="s">
         <v>156</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3396,7 +3392,7 @@
       <c r="A97" t="s">
         <v>157</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3404,7 +3400,7 @@
       <c r="A98" t="s">
         <v>158</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="4" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3412,7 +3408,7 @@
       <c r="A99" t="s">
         <v>159</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3420,7 +3416,7 @@
       <c r="A100" t="s">
         <v>160</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3436,7 +3432,7 @@
       <c r="A102" t="s">
         <v>162</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3444,7 +3440,7 @@
       <c r="A103" t="s">
         <v>163</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>634</v>
       </c>
     </row>
@@ -3452,7 +3448,7 @@
       <c r="A104" t="s">
         <v>164</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3460,7 +3456,7 @@
       <c r="A105" t="s">
         <v>165</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3468,7 +3464,7 @@
       <c r="A106" t="s">
         <v>166</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3476,7 +3472,7 @@
       <c r="A107" t="s">
         <v>167</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="4" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3484,7 +3480,7 @@
       <c r="A108" t="s">
         <v>168</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="4" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3492,7 +3488,7 @@
       <c r="A109" t="s">
         <v>169</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3500,7 +3496,7 @@
       <c r="A110" t="s">
         <v>170</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3508,7 +3504,7 @@
       <c r="A111" t="s">
         <v>171</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="2" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3516,7 +3512,7 @@
       <c r="A112" t="s">
         <v>172</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3524,7 +3520,7 @@
       <c r="A113" t="s">
         <v>173</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>200</v>
       </c>
     </row>
@@ -3532,7 +3528,7 @@
       <c r="A114" t="s">
         <v>174</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3548,7 +3544,7 @@
       <c r="A116" t="s">
         <v>176</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="3" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3564,7 +3560,7 @@
       <c r="A118" t="s">
         <v>178</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3572,7 +3568,7 @@
       <c r="A119" t="s">
         <v>179</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="2" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3580,7 +3576,7 @@
       <c r="A120" t="s">
         <v>180</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3596,7 +3592,7 @@
       <c r="A122" t="s">
         <v>182</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3604,19 +3600,19 @@
       <c r="A123" t="s">
         <v>183</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="6"/>
-      <c r="B124" s="6"/>
+      <c r="A124" s="9"/>
+      <c r="B124" s="9"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>208</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="2" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3632,7 +3628,7 @@
       <c r="A127" t="s">
         <v>210</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="2" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3648,7 +3644,7 @@
       <c r="A129" t="s">
         <v>212</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="2" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3656,7 +3652,7 @@
       <c r="A130" t="s">
         <v>213</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="2" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3672,7 +3668,7 @@
       <c r="A132" t="s">
         <v>215</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="2" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3680,7 +3676,7 @@
       <c r="A133" t="s">
         <v>216</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="2" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3688,7 +3684,7 @@
       <c r="A134" t="s">
         <v>217</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3696,7 +3692,7 @@
       <c r="A135" t="s">
         <v>218</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="2" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3704,7 +3700,7 @@
       <c r="A136" t="s">
         <v>219</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="2" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3712,7 +3708,7 @@
       <c r="A137" t="s">
         <v>220</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="2" t="s">
         <v>248</v>
       </c>
     </row>
@@ -3720,7 +3716,7 @@
       <c r="A138" t="s">
         <v>221</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="2" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3728,7 +3724,7 @@
       <c r="A139" t="s">
         <v>222</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="2" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3736,7 +3732,7 @@
       <c r="A140" t="s">
         <v>223</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="2" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3744,7 +3740,7 @@
       <c r="A141" t="s">
         <v>224</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3752,7 +3748,7 @@
       <c r="A142" t="s">
         <v>225</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="2" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3760,7 +3756,7 @@
       <c r="A143" t="s">
         <v>226</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="2" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3768,7 +3764,7 @@
       <c r="A144" t="s">
         <v>227</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="2" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3776,7 +3772,7 @@
       <c r="A145" t="s">
         <v>228</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="4" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3784,7 +3780,7 @@
       <c r="A146" t="s">
         <v>229</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="2" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3792,7 +3788,7 @@
       <c r="A147" t="s">
         <v>230</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="2" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3800,7 +3796,7 @@
       <c r="A148" t="s">
         <v>231</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="2" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3808,7 +3804,7 @@
       <c r="A149" t="s">
         <v>232</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="2" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3816,7 +3812,7 @@
       <c r="A150" t="s">
         <v>233</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="2" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3824,7 +3820,7 @@
       <c r="A151" t="s">
         <v>234</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="2" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3832,7 +3828,7 @@
       <c r="A152" t="s">
         <v>235</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="2" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3840,7 +3836,7 @@
       <c r="A153" t="s">
         <v>236</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="2" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3848,7 +3844,7 @@
       <c r="A154" t="s">
         <v>237</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="4" t="s">
         <v>264</v>
       </c>
     </row>
@@ -3861,14 +3857,14 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="6"/>
-      <c r="B156" s="6"/>
+      <c r="A156" s="9"/>
+      <c r="B156" s="9"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>265</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="2" t="s">
         <v>295</v>
       </c>
     </row>
@@ -3876,7 +3872,7 @@
       <c r="A158" t="s">
         <v>266</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3884,7 +3880,7 @@
       <c r="A159" t="s">
         <v>267</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3908,7 +3904,7 @@
       <c r="A162" t="s">
         <v>270</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="2" t="s">
         <v>299</v>
       </c>
     </row>
@@ -3924,7 +3920,7 @@
       <c r="A164" t="s">
         <v>272</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="2" t="s">
         <v>300</v>
       </c>
     </row>
@@ -3932,7 +3928,7 @@
       <c r="A165" t="s">
         <v>273</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="2" t="s">
         <v>301</v>
       </c>
     </row>
@@ -3940,7 +3936,7 @@
       <c r="A166" t="s">
         <v>274</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="2" t="s">
         <v>302</v>
       </c>
     </row>
@@ -3948,7 +3944,7 @@
       <c r="A167" t="s">
         <v>275</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="4" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3956,7 +3952,7 @@
       <c r="A168" t="s">
         <v>276</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="4" t="s">
         <v>304</v>
       </c>
     </row>
@@ -3964,7 +3960,7 @@
       <c r="A169" t="s">
         <v>277</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="2" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3972,7 +3968,7 @@
       <c r="A170" t="s">
         <v>278</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="2" t="s">
         <v>306</v>
       </c>
     </row>
@@ -3980,7 +3976,7 @@
       <c r="A171" t="s">
         <v>279</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="2" t="s">
         <v>307</v>
       </c>
     </row>
@@ -3988,7 +3984,7 @@
       <c r="A172" t="s">
         <v>280</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="3" t="s">
         <v>308</v>
       </c>
     </row>
@@ -3996,7 +3992,7 @@
       <c r="A173" t="s">
         <v>281</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="2" t="s">
         <v>309</v>
       </c>
     </row>
@@ -4004,7 +4000,7 @@
       <c r="A174" t="s">
         <v>282</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4012,7 +4008,7 @@
       <c r="A175" t="s">
         <v>283</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="2" t="s">
         <v>310</v>
       </c>
     </row>
@@ -4020,7 +4016,7 @@
       <c r="A176" t="s">
         <v>284</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="2" t="s">
         <v>311</v>
       </c>
     </row>
@@ -4028,7 +4024,7 @@
       <c r="A177" t="s">
         <v>285</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="2" t="s">
         <v>312</v>
       </c>
     </row>
@@ -4036,7 +4032,7 @@
       <c r="A178" t="s">
         <v>286</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="2" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4068,7 +4064,7 @@
       <c r="A182" t="s">
         <v>290</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4076,7 +4072,7 @@
       <c r="A183" t="s">
         <v>291</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="2" t="s">
         <v>314</v>
       </c>
     </row>
@@ -4084,7 +4080,7 @@
       <c r="A184" t="s">
         <v>292</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="2" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4100,19 +4096,19 @@
       <c r="A186" t="s">
         <v>294</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="2" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="6"/>
-      <c r="B187" s="6"/>
+      <c r="A187" s="9"/>
+      <c r="B187" s="9"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>317</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="2" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4120,7 +4116,7 @@
       <c r="A189" t="s">
         <v>318</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="2" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4128,7 +4124,7 @@
       <c r="A190" t="s">
         <v>319</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="2" t="s">
         <v>350</v>
       </c>
     </row>
@@ -4136,7 +4132,7 @@
       <c r="A191" t="s">
         <v>320</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="2" t="s">
         <v>351</v>
       </c>
     </row>
@@ -4144,7 +4140,7 @@
       <c r="A192" t="s">
         <v>321</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="2" t="s">
         <v>352</v>
       </c>
     </row>
@@ -4152,7 +4148,7 @@
       <c r="A193" t="s">
         <v>322</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="B193" s="4" t="s">
         <v>354</v>
       </c>
     </row>
@@ -4160,7 +4156,7 @@
       <c r="A194" t="s">
         <v>323</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="2" t="s">
         <v>353</v>
       </c>
     </row>
@@ -4168,7 +4164,7 @@
       <c r="A195" t="s">
         <v>324</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B195" s="4" t="s">
         <v>355</v>
       </c>
     </row>
@@ -4176,7 +4172,7 @@
       <c r="A196" t="s">
         <v>325</v>
       </c>
-      <c r="B196" s="5" t="s">
+      <c r="B196" s="4" t="s">
         <v>356</v>
       </c>
     </row>
@@ -4184,7 +4180,7 @@
       <c r="A197" t="s">
         <v>326</v>
       </c>
-      <c r="B197" s="5" t="s">
+      <c r="B197" s="4" t="s">
         <v>357</v>
       </c>
     </row>
@@ -4192,7 +4188,7 @@
       <c r="A198" t="s">
         <v>327</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="B198" s="4" t="s">
         <v>358</v>
       </c>
     </row>
@@ -4200,7 +4196,7 @@
       <c r="A199" t="s">
         <v>328</v>
       </c>
-      <c r="B199" s="5" t="s">
+      <c r="B199" s="4" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4208,7 +4204,7 @@
       <c r="A200" t="s">
         <v>329</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="B200" s="4" t="s">
         <v>359</v>
       </c>
     </row>
@@ -4216,7 +4212,7 @@
       <c r="A201" t="s">
         <v>330</v>
       </c>
-      <c r="B201" s="5" t="s">
+      <c r="B201" s="4" t="s">
         <v>360</v>
       </c>
     </row>
@@ -4224,7 +4220,7 @@
       <c r="A202" t="s">
         <v>331</v>
       </c>
-      <c r="B202" s="5" t="s">
+      <c r="B202" s="4" t="s">
         <v>361</v>
       </c>
     </row>
@@ -4232,7 +4228,7 @@
       <c r="A203" t="s">
         <v>332</v>
       </c>
-      <c r="B203" s="5" t="s">
+      <c r="B203" s="4" t="s">
         <v>362</v>
       </c>
     </row>
@@ -4240,7 +4236,7 @@
       <c r="A204" t="s">
         <v>333</v>
       </c>
-      <c r="B204" s="5" t="s">
+      <c r="B204" s="4" t="s">
         <v>630</v>
       </c>
     </row>
@@ -4248,7 +4244,7 @@
       <c r="A205" t="s">
         <v>334</v>
       </c>
-      <c r="B205" s="5" t="s">
+      <c r="B205" s="4" t="s">
         <v>363</v>
       </c>
     </row>
@@ -4256,7 +4252,7 @@
       <c r="A206" t="s">
         <v>335</v>
       </c>
-      <c r="B206" s="5" t="s">
+      <c r="B206" s="4" t="s">
         <v>364</v>
       </c>
     </row>
@@ -4264,7 +4260,7 @@
       <c r="A207" t="s">
         <v>336</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="B207" s="4" t="s">
         <v>365</v>
       </c>
     </row>
@@ -4272,7 +4268,7 @@
       <c r="A208" t="s">
         <v>337</v>
       </c>
-      <c r="B208" s="5" t="s">
+      <c r="B208" s="4" t="s">
         <v>366</v>
       </c>
     </row>
@@ -4280,7 +4276,7 @@
       <c r="A209" t="s">
         <v>338</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" s="2" t="s">
         <v>367</v>
       </c>
     </row>
@@ -4288,7 +4284,7 @@
       <c r="A210" t="s">
         <v>339</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="B210" s="4" t="s">
         <v>368</v>
       </c>
     </row>
@@ -4296,7 +4292,7 @@
       <c r="A211" t="s">
         <v>340</v>
       </c>
-      <c r="B211" s="5" t="s">
+      <c r="B211" s="4" t="s">
         <v>370</v>
       </c>
     </row>
@@ -4304,7 +4300,7 @@
       <c r="A212" t="s">
         <v>341</v>
       </c>
-      <c r="B212" s="5" t="s">
+      <c r="B212" s="4" t="s">
         <v>369</v>
       </c>
     </row>
@@ -4312,7 +4308,7 @@
       <c r="A213" t="s">
         <v>342</v>
       </c>
-      <c r="B213" s="5" t="s">
+      <c r="B213" s="4" t="s">
         <v>371</v>
       </c>
     </row>
@@ -4320,7 +4316,7 @@
       <c r="A214" t="s">
         <v>343</v>
       </c>
-      <c r="B214" s="5" t="s">
+      <c r="B214" s="4" t="s">
         <v>372</v>
       </c>
     </row>
@@ -4328,7 +4324,7 @@
       <c r="A215" t="s">
         <v>344</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="B215" s="4" t="s">
         <v>374</v>
       </c>
     </row>
@@ -4336,7 +4332,7 @@
       <c r="A216" t="s">
         <v>345</v>
       </c>
-      <c r="B216" s="5" t="s">
+      <c r="B216" s="4" t="s">
         <v>373</v>
       </c>
     </row>
@@ -4344,7 +4340,7 @@
       <c r="A217" t="s">
         <v>346</v>
       </c>
-      <c r="B217" s="5" t="s">
+      <c r="B217" s="4" t="s">
         <v>375</v>
       </c>
     </row>
@@ -4357,14 +4353,14 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="6"/>
-      <c r="B219" s="6"/>
+      <c r="A219" s="9"/>
+      <c r="B219" s="9"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>376</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="B220" s="5" t="s">
         <v>407</v>
       </c>
     </row>
@@ -4372,7 +4368,7 @@
       <c r="A221" t="s">
         <v>377</v>
       </c>
-      <c r="B221" s="9" t="s">
+      <c r="B221" s="5" t="s">
         <v>408</v>
       </c>
     </row>
@@ -4380,7 +4376,7 @@
       <c r="A222" t="s">
         <v>378</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="B222" s="5" t="s">
         <v>409</v>
       </c>
     </row>
@@ -4388,7 +4384,7 @@
       <c r="A223" t="s">
         <v>379</v>
       </c>
-      <c r="B223" s="9" t="s">
+      <c r="B223" s="5" t="s">
         <v>410</v>
       </c>
     </row>
@@ -4396,7 +4392,7 @@
       <c r="A224" t="s">
         <v>380</v>
       </c>
-      <c r="B224" s="9" t="s">
+      <c r="B224" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -4404,7 +4400,7 @@
       <c r="A225" t="s">
         <v>381</v>
       </c>
-      <c r="B225" s="9" t="s">
+      <c r="B225" s="5" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4412,7 +4408,7 @@
       <c r="A226" t="s">
         <v>382</v>
       </c>
-      <c r="B226" s="9" t="s">
+      <c r="B226" s="5" t="s">
         <v>413</v>
       </c>
     </row>
@@ -4420,7 +4416,7 @@
       <c r="A227" t="s">
         <v>383</v>
       </c>
-      <c r="B227" s="9" t="s">
+      <c r="B227" s="5" t="s">
         <v>414</v>
       </c>
     </row>
@@ -4428,7 +4424,7 @@
       <c r="A228" t="s">
         <v>384</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="B228" s="5" t="s">
         <v>415</v>
       </c>
     </row>
@@ -4444,7 +4440,7 @@
       <c r="A230" t="s">
         <v>386</v>
       </c>
-      <c r="B230" s="10" t="s">
+      <c r="B230" s="6" t="s">
         <v>416</v>
       </c>
     </row>
@@ -4452,7 +4448,7 @@
       <c r="A231" t="s">
         <v>387</v>
       </c>
-      <c r="B231" s="9" t="s">
+      <c r="B231" s="5" t="s">
         <v>417</v>
       </c>
     </row>
@@ -4460,7 +4456,7 @@
       <c r="A232" t="s">
         <v>388</v>
       </c>
-      <c r="B232" s="9" t="s">
+      <c r="B232" s="5" t="s">
         <v>418</v>
       </c>
     </row>
@@ -4468,7 +4464,7 @@
       <c r="A233" t="s">
         <v>389</v>
       </c>
-      <c r="B233" s="9" t="s">
+      <c r="B233" s="5" t="s">
         <v>419</v>
       </c>
     </row>
@@ -4476,7 +4472,7 @@
       <c r="A234" t="s">
         <v>390</v>
       </c>
-      <c r="B234" s="9" t="s">
+      <c r="B234" s="5" t="s">
         <v>420</v>
       </c>
     </row>
@@ -4484,7 +4480,7 @@
       <c r="A235" t="s">
         <v>391</v>
       </c>
-      <c r="B235" s="9" t="s">
+      <c r="B235" s="5" t="s">
         <v>421</v>
       </c>
     </row>
@@ -4492,7 +4488,7 @@
       <c r="A236" t="s">
         <v>392</v>
       </c>
-      <c r="B236" s="9" t="s">
+      <c r="B236" s="5" t="s">
         <v>422</v>
       </c>
     </row>
@@ -4500,7 +4496,7 @@
       <c r="A237" t="s">
         <v>393</v>
       </c>
-      <c r="B237" s="9" t="s">
+      <c r="B237" s="5" t="s">
         <v>423</v>
       </c>
     </row>
@@ -4508,7 +4504,7 @@
       <c r="A238" t="s">
         <v>394</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="5" t="s">
         <v>424</v>
       </c>
     </row>
@@ -4516,7 +4512,7 @@
       <c r="A239" t="s">
         <v>395</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" s="5" t="s">
         <v>425</v>
       </c>
     </row>
@@ -4524,7 +4520,7 @@
       <c r="A240" t="s">
         <v>396</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" s="5" t="s">
         <v>426</v>
       </c>
     </row>
@@ -4532,7 +4528,7 @@
       <c r="A241" t="s">
         <v>397</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" s="5" t="s">
         <v>426</v>
       </c>
     </row>
@@ -4540,7 +4536,7 @@
       <c r="A242" t="s">
         <v>398</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="5" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4548,7 +4544,7 @@
       <c r="A243" t="s">
         <v>399</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="5" t="s">
         <v>427</v>
       </c>
     </row>
@@ -4556,7 +4552,7 @@
       <c r="A244" t="s">
         <v>400</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" s="5" t="s">
         <v>428</v>
       </c>
     </row>
@@ -4564,7 +4560,7 @@
       <c r="A245" t="s">
         <v>401</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" s="5" t="s">
         <v>428</v>
       </c>
     </row>
@@ -4572,7 +4568,7 @@
       <c r="A246" t="s">
         <v>402</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" s="5" t="s">
         <v>429</v>
       </c>
     </row>
@@ -4604,13 +4600,13 @@
       <c r="A250" t="s">
         <v>406</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="2" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="6"/>
-      <c r="B251" s="6"/>
+      <c r="A251" s="9"/>
+      <c r="B251" s="9"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
@@ -4624,7 +4620,7 @@
       <c r="A253" t="s">
         <v>432</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="2" t="s">
         <v>461</v>
       </c>
     </row>
@@ -4632,7 +4628,7 @@
       <c r="A254" t="s">
         <v>433</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="2" t="s">
         <v>462</v>
       </c>
     </row>
@@ -4640,7 +4636,7 @@
       <c r="A255" t="s">
         <v>434</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="2" t="s">
         <v>463</v>
       </c>
     </row>
@@ -4648,7 +4644,7 @@
       <c r="A256" t="s">
         <v>435</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="2" t="s">
         <v>464</v>
       </c>
     </row>
@@ -4656,7 +4652,7 @@
       <c r="A257" t="s">
         <v>436</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="2" t="s">
         <v>465</v>
       </c>
     </row>
@@ -4664,7 +4660,7 @@
       <c r="A258" t="s">
         <v>437</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="2" t="s">
         <v>466</v>
       </c>
     </row>
@@ -4672,7 +4668,7 @@
       <c r="A259" t="s">
         <v>438</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="2" t="s">
         <v>467</v>
       </c>
     </row>
@@ -4680,7 +4676,7 @@
       <c r="A260" t="s">
         <v>439</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="2" t="s">
         <v>468</v>
       </c>
     </row>
@@ -4688,7 +4684,7 @@
       <c r="A261" t="s">
         <v>440</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="2" t="s">
         <v>469</v>
       </c>
     </row>
@@ -4696,7 +4692,7 @@
       <c r="A262" t="s">
         <v>441</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="2" t="s">
         <v>470</v>
       </c>
     </row>
@@ -4704,7 +4700,7 @@
       <c r="A263" t="s">
         <v>442</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="2" t="s">
         <v>470</v>
       </c>
     </row>
@@ -4712,7 +4708,7 @@
       <c r="A264" t="s">
         <v>443</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="2" t="s">
         <v>471</v>
       </c>
     </row>
@@ -4720,7 +4716,7 @@
       <c r="A265" t="s">
         <v>444</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="2" t="s">
         <v>469</v>
       </c>
     </row>
@@ -4736,7 +4732,7 @@
       <c r="A267" t="s">
         <v>446</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="2" t="s">
         <v>472</v>
       </c>
     </row>
@@ -4853,8 +4849,8 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="6"/>
-      <c r="B282" s="6"/>
+      <c r="A282" s="9"/>
+      <c r="B282" s="9"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
@@ -5105,8 +5101,8 @@
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="6"/>
-      <c r="B314" s="6"/>
+      <c r="A314" s="9"/>
+      <c r="B314" s="9"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
@@ -5349,8 +5345,8 @@
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="6"/>
-      <c r="B345" s="6"/>
+      <c r="A345" s="9"/>
+      <c r="B345" s="9"/>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
@@ -5601,11 +5597,16 @@
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="6"/>
-      <c r="B377" s="6"/>
+      <c r="A377" s="9"/>
+      <c r="B377" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A282:B282"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A345:B345"/>
+    <mergeCell ref="A377:B377"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
@@ -5617,11 +5618,6 @@
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A282:B282"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="A345:B345"/>
-    <mergeCell ref="A377:B377"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Starter of the Day QA - 12 mis.xlsx
+++ b/Starter of the Day QA - 12 mis.xlsx
@@ -2290,13 +2290,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2600,8 +2600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B267" sqref="B267"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B286" sqref="B286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2620,10 +2620,10 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="7"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2632,10 +2632,10 @@
       <c r="B2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2644,10 +2644,10 @@
       <c r="B3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2656,10 +2656,10 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2878,8 +2878,8 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -3106,8 +3106,8 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -3361,8 +3361,8 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -3605,8 +3605,8 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="9"/>
-      <c r="B124" s="9"/>
+      <c r="A124" s="7"/>
+      <c r="B124" s="7"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -3857,8 +3857,8 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="9"/>
-      <c r="B156" s="9"/>
+      <c r="A156" s="7"/>
+      <c r="B156" s="7"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -4101,8 +4101,8 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="9"/>
-      <c r="B187" s="9"/>
+      <c r="A187" s="7"/>
+      <c r="B187" s="7"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
@@ -4353,8 +4353,8 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="9"/>
-      <c r="B219" s="9"/>
+      <c r="A219" s="7"/>
+      <c r="B219" s="7"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
@@ -4605,8 +4605,8 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="9"/>
-      <c r="B251" s="9"/>
+      <c r="A251" s="7"/>
+      <c r="B251" s="7"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
@@ -4740,7 +4740,7 @@
       <c r="A268" t="s">
         <v>447</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="2" t="s">
         <v>473</v>
       </c>
     </row>
@@ -4748,7 +4748,7 @@
       <c r="A269" t="s">
         <v>448</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="2" t="s">
         <v>474</v>
       </c>
     </row>
@@ -4764,7 +4764,7 @@
       <c r="A271" t="s">
         <v>450</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="2" t="s">
         <v>475</v>
       </c>
     </row>
@@ -4780,7 +4780,7 @@
       <c r="A273" t="s">
         <v>452</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="2" t="s">
         <v>476</v>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       <c r="A274" t="s">
         <v>453</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="2" t="s">
         <v>477</v>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       <c r="A275" t="s">
         <v>454</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="2" t="s">
         <v>477</v>
       </c>
     </row>
@@ -4820,7 +4820,7 @@
       <c r="A278" t="s">
         <v>457</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="2" t="s">
         <v>478</v>
       </c>
     </row>
@@ -4836,7 +4836,7 @@
       <c r="A280" t="s">
         <v>459</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="2" t="s">
         <v>479</v>
       </c>
     </row>
@@ -4849,14 +4849,14 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="9"/>
-      <c r="B282" s="9"/>
+      <c r="A282" s="7"/>
+      <c r="B282" s="7"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>480</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="2" t="s">
         <v>511</v>
       </c>
     </row>
@@ -4864,7 +4864,7 @@
       <c r="A284" t="s">
         <v>481</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="2" t="s">
         <v>475</v>
       </c>
     </row>
@@ -4872,7 +4872,7 @@
       <c r="A285" t="s">
         <v>482</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="2" t="s">
         <v>512</v>
       </c>
     </row>
@@ -4880,7 +4880,7 @@
       <c r="A286" t="s">
         <v>483</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="2" t="s">
         <v>514</v>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
       <c r="A287" t="s">
         <v>484</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="2" t="s">
         <v>513</v>
       </c>
     </row>
@@ -4912,7 +4912,7 @@
       <c r="A290" t="s">
         <v>487</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4920,7 +4920,7 @@
       <c r="A291" t="s">
         <v>488</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="2" t="s">
         <v>515</v>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       <c r="A292" t="s">
         <v>489</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="2" t="s">
         <v>516</v>
       </c>
     </row>
@@ -4936,7 +4936,7 @@
       <c r="A293" t="s">
         <v>490</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="2" t="s">
         <v>517</v>
       </c>
     </row>
@@ -5101,8 +5101,8 @@
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="9"/>
-      <c r="B314" s="9"/>
+      <c r="A314" s="7"/>
+      <c r="B314" s="7"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
@@ -5345,8 +5345,8 @@
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="9"/>
-      <c r="B345" s="9"/>
+      <c r="A345" s="7"/>
+      <c r="B345" s="7"/>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
@@ -5597,16 +5597,11 @@
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="9"/>
-      <c r="B377" s="9"/>
+      <c r="A377" s="7"/>
+      <c r="B377" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A282:B282"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="A345:B345"/>
-    <mergeCell ref="A377:B377"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
@@ -5618,6 +5613,11 @@
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A282:B282"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A345:B345"/>
+    <mergeCell ref="A377:B377"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Starter of the Day QA - 12 mis.xlsx
+++ b/Starter of the Day QA - 12 mis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="720" windowWidth="18195" windowHeight="11730"/>
+    <workbookView xWindow="480" yWindow="840" windowWidth="18195" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2274,11 +2274,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2290,13 +2287,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2600,8 +2597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B286" sqref="B286"/>
+    <sheetView tabSelected="1" topLeftCell="A358" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B374" sqref="B374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2620,34 +2617,34 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2656,16 +2653,16 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2673,7 +2670,7 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2681,7 +2678,7 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2689,7 +2686,7 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2697,7 +2694,7 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2713,7 +2710,7 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2729,7 +2726,7 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2745,7 +2742,7 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2753,7 +2750,7 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2761,7 +2758,7 @@
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2769,7 +2766,7 @@
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2777,7 +2774,7 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2785,7 +2782,7 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2793,7 +2790,7 @@
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2801,7 +2798,7 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2809,7 +2806,7 @@
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2817,7 +2814,7 @@
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2825,7 +2822,7 @@
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2833,7 +2830,7 @@
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2841,7 +2838,7 @@
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2849,7 +2846,7 @@
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2857,7 +2854,7 @@
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2865,7 +2862,7 @@
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2873,19 +2870,19 @@
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2893,7 +2890,7 @@
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2901,7 +2898,7 @@
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2909,7 +2906,7 @@
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2917,7 +2914,7 @@
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2925,7 +2922,7 @@
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2933,7 +2930,7 @@
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2941,7 +2938,7 @@
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2949,7 +2946,7 @@
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2957,7 +2954,7 @@
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2965,7 +2962,7 @@
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2973,7 +2970,7 @@
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2981,7 +2978,7 @@
       <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2989,7 +2986,7 @@
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2997,7 +2994,7 @@
       <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3029,7 +3026,7 @@
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3037,7 +3034,7 @@
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3053,7 +3050,7 @@
       <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3061,7 +3058,7 @@
       <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3077,7 +3074,7 @@
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3093,7 +3090,7 @@
       <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3101,13 +3098,13 @@
       <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -3121,7 +3118,7 @@
       <c r="A63" t="s">
         <v>104</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3129,7 +3126,7 @@
       <c r="A64" t="s">
         <v>105</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3137,7 +3134,7 @@
       <c r="A65" t="s">
         <v>106</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3145,7 +3142,7 @@
       <c r="A66" t="s">
         <v>107</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3161,7 +3158,7 @@
       <c r="A68" t="s">
         <v>109</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3169,7 +3166,7 @@
       <c r="A69" t="s">
         <v>110</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D69" t="s">
@@ -3188,7 +3185,7 @@
       <c r="A71" t="s">
         <v>112</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3196,7 +3193,7 @@
       <c r="A72" t="s">
         <v>113</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3204,7 +3201,7 @@
       <c r="A73" t="s">
         <v>114</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3212,7 +3209,7 @@
       <c r="A74" t="s">
         <v>115</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3220,7 +3217,7 @@
       <c r="A75" t="s">
         <v>116</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3228,7 +3225,7 @@
       <c r="A76" t="s">
         <v>117</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3236,7 +3233,7 @@
       <c r="A77" t="s">
         <v>118</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3244,7 +3241,7 @@
       <c r="A78" t="s">
         <v>119</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3252,7 +3249,7 @@
       <c r="A79" t="s">
         <v>120</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3268,7 +3265,7 @@
       <c r="A81" t="s">
         <v>122</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3276,7 +3273,7 @@
       <c r="A82" t="s">
         <v>123</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>632</v>
       </c>
     </row>
@@ -3284,7 +3281,7 @@
       <c r="A83" t="s">
         <v>124</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>633</v>
       </c>
     </row>
@@ -3292,7 +3289,7 @@
       <c r="A84" t="s">
         <v>125</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3300,7 +3297,7 @@
       <c r="A85" t="s">
         <v>126</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3316,7 +3313,7 @@
       <c r="A87" t="s">
         <v>128</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3324,7 +3321,7 @@
       <c r="A88" t="s">
         <v>129</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3332,7 +3329,7 @@
       <c r="A89" t="s">
         <v>130</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3340,7 +3337,7 @@
       <c r="A90" t="s">
         <v>131</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3356,19 +3353,19 @@
       <c r="A92" t="s">
         <v>133</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>154</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3376,7 +3373,7 @@
       <c r="A95" t="s">
         <v>155</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3384,7 +3381,7 @@
       <c r="A96" t="s">
         <v>156</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3392,7 +3389,7 @@
       <c r="A97" t="s">
         <v>157</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3400,7 +3397,7 @@
       <c r="A98" t="s">
         <v>158</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3408,7 +3405,7 @@
       <c r="A99" t="s">
         <v>159</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3416,7 +3413,7 @@
       <c r="A100" t="s">
         <v>160</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3432,7 +3429,7 @@
       <c r="A102" t="s">
         <v>162</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3440,7 +3437,7 @@
       <c r="A103" t="s">
         <v>163</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>634</v>
       </c>
     </row>
@@ -3448,7 +3445,7 @@
       <c r="A104" t="s">
         <v>164</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3456,7 +3453,7 @@
       <c r="A105" t="s">
         <v>165</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3464,7 +3461,7 @@
       <c r="A106" t="s">
         <v>166</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3472,7 +3469,7 @@
       <c r="A107" t="s">
         <v>167</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="3" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3480,7 +3477,7 @@
       <c r="A108" t="s">
         <v>168</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="3" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3488,7 +3485,7 @@
       <c r="A109" t="s">
         <v>169</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3496,7 +3493,7 @@
       <c r="A110" t="s">
         <v>170</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="1" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3504,7 +3501,7 @@
       <c r="A111" t="s">
         <v>171</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="1" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3512,7 +3509,7 @@
       <c r="A112" t="s">
         <v>172</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3520,7 +3517,7 @@
       <c r="A113" t="s">
         <v>173</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="1" t="s">
         <v>200</v>
       </c>
     </row>
@@ -3528,7 +3525,7 @@
       <c r="A114" t="s">
         <v>174</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="1" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3544,7 +3541,7 @@
       <c r="A116" t="s">
         <v>176</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3560,7 +3557,7 @@
       <c r="A118" t="s">
         <v>178</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="1" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3568,7 +3565,7 @@
       <c r="A119" t="s">
         <v>179</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="1" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3576,7 +3573,7 @@
       <c r="A120" t="s">
         <v>180</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="1" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3592,7 +3589,7 @@
       <c r="A122" t="s">
         <v>182</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3600,19 +3597,19 @@
       <c r="A123" t="s">
         <v>183</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>208</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="1" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3628,7 +3625,7 @@
       <c r="A127" t="s">
         <v>210</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="1" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3644,7 +3641,7 @@
       <c r="A129" t="s">
         <v>212</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="1" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3652,7 +3649,7 @@
       <c r="A130" t="s">
         <v>213</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="1" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3668,7 +3665,7 @@
       <c r="A132" t="s">
         <v>215</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="1" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3676,7 +3673,7 @@
       <c r="A133" t="s">
         <v>216</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="1" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3684,7 +3681,7 @@
       <c r="A134" t="s">
         <v>217</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="1" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3692,7 +3689,7 @@
       <c r="A135" t="s">
         <v>218</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="1" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3700,7 +3697,7 @@
       <c r="A136" t="s">
         <v>219</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="1" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3708,7 +3705,7 @@
       <c r="A137" t="s">
         <v>220</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="1" t="s">
         <v>248</v>
       </c>
     </row>
@@ -3716,7 +3713,7 @@
       <c r="A138" t="s">
         <v>221</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="1" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3724,7 +3721,7 @@
       <c r="A139" t="s">
         <v>222</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="1" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3732,7 +3729,7 @@
       <c r="A140" t="s">
         <v>223</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="1" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3740,7 +3737,7 @@
       <c r="A141" t="s">
         <v>224</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="1" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3748,7 +3745,7 @@
       <c r="A142" t="s">
         <v>225</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="1" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3756,7 +3753,7 @@
       <c r="A143" t="s">
         <v>226</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3764,7 +3761,7 @@
       <c r="A144" t="s">
         <v>227</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="1" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3772,7 +3769,7 @@
       <c r="A145" t="s">
         <v>228</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="3" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3780,7 +3777,7 @@
       <c r="A146" t="s">
         <v>229</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="1" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3788,7 +3785,7 @@
       <c r="A147" t="s">
         <v>230</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="1" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3796,7 +3793,7 @@
       <c r="A148" t="s">
         <v>231</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="1" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3804,7 +3801,7 @@
       <c r="A149" t="s">
         <v>232</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="1" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3812,7 +3809,7 @@
       <c r="A150" t="s">
         <v>233</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="1" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3820,7 +3817,7 @@
       <c r="A151" t="s">
         <v>234</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="1" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3828,7 +3825,7 @@
       <c r="A152" t="s">
         <v>235</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="1" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3836,7 +3833,7 @@
       <c r="A153" t="s">
         <v>236</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="1" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3844,7 +3841,7 @@
       <c r="A154" t="s">
         <v>237</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="3" t="s">
         <v>264</v>
       </c>
     </row>
@@ -3857,14 +3854,14 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="7"/>
-      <c r="B156" s="7"/>
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>265</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="1" t="s">
         <v>295</v>
       </c>
     </row>
@@ -3872,7 +3869,7 @@
       <c r="A158" t="s">
         <v>266</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3880,7 +3877,7 @@
       <c r="A159" t="s">
         <v>267</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3904,7 +3901,7 @@
       <c r="A162" t="s">
         <v>270</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="1" t="s">
         <v>299</v>
       </c>
     </row>
@@ -3920,7 +3917,7 @@
       <c r="A164" t="s">
         <v>272</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="1" t="s">
         <v>300</v>
       </c>
     </row>
@@ -3928,7 +3925,7 @@
       <c r="A165" t="s">
         <v>273</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="1" t="s">
         <v>301</v>
       </c>
     </row>
@@ -3936,7 +3933,7 @@
       <c r="A166" t="s">
         <v>274</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="1" t="s">
         <v>302</v>
       </c>
     </row>
@@ -3944,7 +3941,7 @@
       <c r="A167" t="s">
         <v>275</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" s="3" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3952,7 +3949,7 @@
       <c r="A168" t="s">
         <v>276</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" s="3" t="s">
         <v>304</v>
       </c>
     </row>
@@ -3960,7 +3957,7 @@
       <c r="A169" t="s">
         <v>277</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="1" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3968,7 +3965,7 @@
       <c r="A170" t="s">
         <v>278</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="1" t="s">
         <v>306</v>
       </c>
     </row>
@@ -3976,7 +3973,7 @@
       <c r="A171" t="s">
         <v>279</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="1" t="s">
         <v>307</v>
       </c>
     </row>
@@ -3984,7 +3981,7 @@
       <c r="A172" t="s">
         <v>280</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="2" t="s">
         <v>308</v>
       </c>
     </row>
@@ -3992,7 +3989,7 @@
       <c r="A173" t="s">
         <v>281</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="1" t="s">
         <v>309</v>
       </c>
     </row>
@@ -4000,7 +3997,7 @@
       <c r="A174" t="s">
         <v>282</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4008,7 +4005,7 @@
       <c r="A175" t="s">
         <v>283</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="1" t="s">
         <v>310</v>
       </c>
     </row>
@@ -4016,7 +4013,7 @@
       <c r="A176" t="s">
         <v>284</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="1" t="s">
         <v>311</v>
       </c>
     </row>
@@ -4024,7 +4021,7 @@
       <c r="A177" t="s">
         <v>285</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="1" t="s">
         <v>312</v>
       </c>
     </row>
@@ -4032,7 +4029,7 @@
       <c r="A178" t="s">
         <v>286</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="1" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4064,7 +4061,7 @@
       <c r="A182" t="s">
         <v>290</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4072,7 +4069,7 @@
       <c r="A183" t="s">
         <v>291</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="1" t="s">
         <v>314</v>
       </c>
     </row>
@@ -4080,7 +4077,7 @@
       <c r="A184" t="s">
         <v>292</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4096,19 +4093,19 @@
       <c r="A186" t="s">
         <v>294</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="1" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="7"/>
-      <c r="B187" s="7"/>
+      <c r="A187" s="8"/>
+      <c r="B187" s="8"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>317</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="1" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4116,7 +4113,7 @@
       <c r="A189" t="s">
         <v>318</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="1" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4124,7 +4121,7 @@
       <c r="A190" t="s">
         <v>319</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="1" t="s">
         <v>350</v>
       </c>
     </row>
@@ -4132,7 +4129,7 @@
       <c r="A191" t="s">
         <v>320</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="1" t="s">
         <v>351</v>
       </c>
     </row>
@@ -4140,7 +4137,7 @@
       <c r="A192" t="s">
         <v>321</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="1" t="s">
         <v>352</v>
       </c>
     </row>
@@ -4148,7 +4145,7 @@
       <c r="A193" t="s">
         <v>322</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="3" t="s">
         <v>354</v>
       </c>
     </row>
@@ -4156,7 +4153,7 @@
       <c r="A194" t="s">
         <v>323</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="1" t="s">
         <v>353</v>
       </c>
     </row>
@@ -4164,7 +4161,7 @@
       <c r="A195" t="s">
         <v>324</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B195" s="3" t="s">
         <v>355</v>
       </c>
     </row>
@@ -4172,7 +4169,7 @@
       <c r="A196" t="s">
         <v>325</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="3" t="s">
         <v>356</v>
       </c>
     </row>
@@ -4180,7 +4177,7 @@
       <c r="A197" t="s">
         <v>326</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" s="3" t="s">
         <v>357</v>
       </c>
     </row>
@@ -4188,7 +4185,7 @@
       <c r="A198" t="s">
         <v>327</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B198" s="3" t="s">
         <v>358</v>
       </c>
     </row>
@@ -4196,7 +4193,7 @@
       <c r="A199" t="s">
         <v>328</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B199" s="3" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4204,7 +4201,7 @@
       <c r="A200" t="s">
         <v>329</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B200" s="3" t="s">
         <v>359</v>
       </c>
     </row>
@@ -4212,7 +4209,7 @@
       <c r="A201" t="s">
         <v>330</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" s="3" t="s">
         <v>360</v>
       </c>
     </row>
@@ -4220,7 +4217,7 @@
       <c r="A202" t="s">
         <v>331</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B202" s="3" t="s">
         <v>361</v>
       </c>
     </row>
@@ -4228,7 +4225,7 @@
       <c r="A203" t="s">
         <v>332</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B203" s="3" t="s">
         <v>362</v>
       </c>
     </row>
@@ -4236,7 +4233,7 @@
       <c r="A204" t="s">
         <v>333</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B204" s="3" t="s">
         <v>630</v>
       </c>
     </row>
@@ -4244,7 +4241,7 @@
       <c r="A205" t="s">
         <v>334</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" s="3" t="s">
         <v>363</v>
       </c>
     </row>
@@ -4252,7 +4249,7 @@
       <c r="A206" t="s">
         <v>335</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B206" s="3" t="s">
         <v>364</v>
       </c>
     </row>
@@ -4260,7 +4257,7 @@
       <c r="A207" t="s">
         <v>336</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="B207" s="3" t="s">
         <v>365</v>
       </c>
     </row>
@@ -4268,7 +4265,7 @@
       <c r="A208" t="s">
         <v>337</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="B208" s="3" t="s">
         <v>366</v>
       </c>
     </row>
@@ -4276,7 +4273,7 @@
       <c r="A209" t="s">
         <v>338</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="1" t="s">
         <v>367</v>
       </c>
     </row>
@@ -4284,7 +4281,7 @@
       <c r="A210" t="s">
         <v>339</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B210" s="3" t="s">
         <v>368</v>
       </c>
     </row>
@@ -4292,7 +4289,7 @@
       <c r="A211" t="s">
         <v>340</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B211" s="3" t="s">
         <v>370</v>
       </c>
     </row>
@@ -4300,7 +4297,7 @@
       <c r="A212" t="s">
         <v>341</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B212" s="3" t="s">
         <v>369</v>
       </c>
     </row>
@@ -4308,7 +4305,7 @@
       <c r="A213" t="s">
         <v>342</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B213" s="3" t="s">
         <v>371</v>
       </c>
     </row>
@@ -4316,7 +4313,7 @@
       <c r="A214" t="s">
         <v>343</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B214" s="3" t="s">
         <v>372</v>
       </c>
     </row>
@@ -4324,7 +4321,7 @@
       <c r="A215" t="s">
         <v>344</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B215" s="3" t="s">
         <v>374</v>
       </c>
     </row>
@@ -4332,7 +4329,7 @@
       <c r="A216" t="s">
         <v>345</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B216" s="3" t="s">
         <v>373</v>
       </c>
     </row>
@@ -4340,7 +4337,7 @@
       <c r="A217" t="s">
         <v>346</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B217" s="3" t="s">
         <v>375</v>
       </c>
     </row>
@@ -4353,14 +4350,14 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="7"/>
-      <c r="B219" s="7"/>
+      <c r="A219" s="8"/>
+      <c r="B219" s="8"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>376</v>
       </c>
-      <c r="B220" s="5" t="s">
+      <c r="B220" s="4" t="s">
         <v>407</v>
       </c>
     </row>
@@ -4368,7 +4365,7 @@
       <c r="A221" t="s">
         <v>377</v>
       </c>
-      <c r="B221" s="5" t="s">
+      <c r="B221" s="4" t="s">
         <v>408</v>
       </c>
     </row>
@@ -4376,7 +4373,7 @@
       <c r="A222" t="s">
         <v>378</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="B222" s="4" t="s">
         <v>409</v>
       </c>
     </row>
@@ -4384,7 +4381,7 @@
       <c r="A223" t="s">
         <v>379</v>
       </c>
-      <c r="B223" s="5" t="s">
+      <c r="B223" s="4" t="s">
         <v>410</v>
       </c>
     </row>
@@ -4392,7 +4389,7 @@
       <c r="A224" t="s">
         <v>380</v>
       </c>
-      <c r="B224" s="5" t="s">
+      <c r="B224" s="4" t="s">
         <v>411</v>
       </c>
     </row>
@@ -4400,7 +4397,7 @@
       <c r="A225" t="s">
         <v>381</v>
       </c>
-      <c r="B225" s="5" t="s">
+      <c r="B225" s="4" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4408,7 +4405,7 @@
       <c r="A226" t="s">
         <v>382</v>
       </c>
-      <c r="B226" s="5" t="s">
+      <c r="B226" s="4" t="s">
         <v>413</v>
       </c>
     </row>
@@ -4416,7 +4413,7 @@
       <c r="A227" t="s">
         <v>383</v>
       </c>
-      <c r="B227" s="5" t="s">
+      <c r="B227" s="4" t="s">
         <v>414</v>
       </c>
     </row>
@@ -4424,7 +4421,7 @@
       <c r="A228" t="s">
         <v>384</v>
       </c>
-      <c r="B228" s="5" t="s">
+      <c r="B228" s="4" t="s">
         <v>415</v>
       </c>
     </row>
@@ -4440,7 +4437,7 @@
       <c r="A230" t="s">
         <v>386</v>
       </c>
-      <c r="B230" s="6" t="s">
+      <c r="B230" s="5" t="s">
         <v>416</v>
       </c>
     </row>
@@ -4448,7 +4445,7 @@
       <c r="A231" t="s">
         <v>387</v>
       </c>
-      <c r="B231" s="5" t="s">
+      <c r="B231" s="4" t="s">
         <v>417</v>
       </c>
     </row>
@@ -4456,7 +4453,7 @@
       <c r="A232" t="s">
         <v>388</v>
       </c>
-      <c r="B232" s="5" t="s">
+      <c r="B232" s="4" t="s">
         <v>418</v>
       </c>
     </row>
@@ -4464,7 +4461,7 @@
       <c r="A233" t="s">
         <v>389</v>
       </c>
-      <c r="B233" s="5" t="s">
+      <c r="B233" s="4" t="s">
         <v>419</v>
       </c>
     </row>
@@ -4472,7 +4469,7 @@
       <c r="A234" t="s">
         <v>390</v>
       </c>
-      <c r="B234" s="5" t="s">
+      <c r="B234" s="4" t="s">
         <v>420</v>
       </c>
     </row>
@@ -4480,7 +4477,7 @@
       <c r="A235" t="s">
         <v>391</v>
       </c>
-      <c r="B235" s="5" t="s">
+      <c r="B235" s="4" t="s">
         <v>421</v>
       </c>
     </row>
@@ -4488,7 +4485,7 @@
       <c r="A236" t="s">
         <v>392</v>
       </c>
-      <c r="B236" s="5" t="s">
+      <c r="B236" s="4" t="s">
         <v>422</v>
       </c>
     </row>
@@ -4496,7 +4493,7 @@
       <c r="A237" t="s">
         <v>393</v>
       </c>
-      <c r="B237" s="5" t="s">
+      <c r="B237" s="4" t="s">
         <v>423</v>
       </c>
     </row>
@@ -4504,7 +4501,7 @@
       <c r="A238" t="s">
         <v>394</v>
       </c>
-      <c r="B238" s="5" t="s">
+      <c r="B238" s="4" t="s">
         <v>424</v>
       </c>
     </row>
@@ -4512,7 +4509,7 @@
       <c r="A239" t="s">
         <v>395</v>
       </c>
-      <c r="B239" s="5" t="s">
+      <c r="B239" s="4" t="s">
         <v>425</v>
       </c>
     </row>
@@ -4520,7 +4517,7 @@
       <c r="A240" t="s">
         <v>396</v>
       </c>
-      <c r="B240" s="5" t="s">
+      <c r="B240" s="4" t="s">
         <v>426</v>
       </c>
     </row>
@@ -4528,7 +4525,7 @@
       <c r="A241" t="s">
         <v>397</v>
       </c>
-      <c r="B241" s="5" t="s">
+      <c r="B241" s="4" t="s">
         <v>426</v>
       </c>
     </row>
@@ -4536,7 +4533,7 @@
       <c r="A242" t="s">
         <v>398</v>
       </c>
-      <c r="B242" s="5" t="s">
+      <c r="B242" s="4" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4544,7 +4541,7 @@
       <c r="A243" t="s">
         <v>399</v>
       </c>
-      <c r="B243" s="5" t="s">
+      <c r="B243" s="4" t="s">
         <v>427</v>
       </c>
     </row>
@@ -4552,7 +4549,7 @@
       <c r="A244" t="s">
         <v>400</v>
       </c>
-      <c r="B244" s="5" t="s">
+      <c r="B244" s="4" t="s">
         <v>428</v>
       </c>
     </row>
@@ -4560,7 +4557,7 @@
       <c r="A245" t="s">
         <v>401</v>
       </c>
-      <c r="B245" s="5" t="s">
+      <c r="B245" s="4" t="s">
         <v>428</v>
       </c>
     </row>
@@ -4568,7 +4565,7 @@
       <c r="A246" t="s">
         <v>402</v>
       </c>
-      <c r="B246" s="5" t="s">
+      <c r="B246" s="4" t="s">
         <v>429</v>
       </c>
     </row>
@@ -4600,13 +4597,13 @@
       <c r="A250" t="s">
         <v>406</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" s="1" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="7"/>
-      <c r="B251" s="7"/>
+      <c r="A251" s="8"/>
+      <c r="B251" s="8"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
@@ -4620,7 +4617,7 @@
       <c r="A253" t="s">
         <v>432</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B253" s="1" t="s">
         <v>461</v>
       </c>
     </row>
@@ -4628,7 +4625,7 @@
       <c r="A254" t="s">
         <v>433</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B254" s="1" t="s">
         <v>462</v>
       </c>
     </row>
@@ -4636,7 +4633,7 @@
       <c r="A255" t="s">
         <v>434</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" s="1" t="s">
         <v>463</v>
       </c>
     </row>
@@ -4644,7 +4641,7 @@
       <c r="A256" t="s">
         <v>435</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="1" t="s">
         <v>464</v>
       </c>
     </row>
@@ -4652,7 +4649,7 @@
       <c r="A257" t="s">
         <v>436</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B257" s="1" t="s">
         <v>465</v>
       </c>
     </row>
@@ -4660,7 +4657,7 @@
       <c r="A258" t="s">
         <v>437</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" s="1" t="s">
         <v>466</v>
       </c>
     </row>
@@ -4668,7 +4665,7 @@
       <c r="A259" t="s">
         <v>438</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B259" s="1" t="s">
         <v>467</v>
       </c>
     </row>
@@ -4676,7 +4673,7 @@
       <c r="A260" t="s">
         <v>439</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" s="1" t="s">
         <v>468</v>
       </c>
     </row>
@@ -4684,7 +4681,7 @@
       <c r="A261" t="s">
         <v>440</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B261" s="1" t="s">
         <v>469</v>
       </c>
     </row>
@@ -4692,7 +4689,7 @@
       <c r="A262" t="s">
         <v>441</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B262" s="1" t="s">
         <v>470</v>
       </c>
     </row>
@@ -4700,7 +4697,7 @@
       <c r="A263" t="s">
         <v>442</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" s="1" t="s">
         <v>470</v>
       </c>
     </row>
@@ -4708,7 +4705,7 @@
       <c r="A264" t="s">
         <v>443</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B264" s="1" t="s">
         <v>471</v>
       </c>
     </row>
@@ -4716,7 +4713,7 @@
       <c r="A265" t="s">
         <v>444</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="B265" s="1" t="s">
         <v>469</v>
       </c>
     </row>
@@ -4732,7 +4729,7 @@
       <c r="A267" t="s">
         <v>446</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B267" s="1" t="s">
         <v>472</v>
       </c>
     </row>
@@ -4740,7 +4737,7 @@
       <c r="A268" t="s">
         <v>447</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B268" s="1" t="s">
         <v>473</v>
       </c>
     </row>
@@ -4748,7 +4745,7 @@
       <c r="A269" t="s">
         <v>448</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B269" s="1" t="s">
         <v>474</v>
       </c>
     </row>
@@ -4764,7 +4761,7 @@
       <c r="A271" t="s">
         <v>450</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="B271" s="1" t="s">
         <v>475</v>
       </c>
     </row>
@@ -4780,7 +4777,7 @@
       <c r="A273" t="s">
         <v>452</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="B273" s="1" t="s">
         <v>476</v>
       </c>
     </row>
@@ -4788,7 +4785,7 @@
       <c r="A274" t="s">
         <v>453</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="B274" s="1" t="s">
         <v>477</v>
       </c>
     </row>
@@ -4796,7 +4793,7 @@
       <c r="A275" t="s">
         <v>454</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B275" s="1" t="s">
         <v>477</v>
       </c>
     </row>
@@ -4820,7 +4817,7 @@
       <c r="A278" t="s">
         <v>457</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="B278" s="1" t="s">
         <v>478</v>
       </c>
     </row>
@@ -4836,7 +4833,7 @@
       <c r="A280" t="s">
         <v>459</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="B280" s="1" t="s">
         <v>479</v>
       </c>
     </row>
@@ -4849,14 +4846,14 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="7"/>
-      <c r="B282" s="7"/>
+      <c r="A282" s="8"/>
+      <c r="B282" s="8"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>480</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="B283" s="1" t="s">
         <v>511</v>
       </c>
     </row>
@@ -4864,7 +4861,7 @@
       <c r="A284" t="s">
         <v>481</v>
       </c>
-      <c r="B284" s="2" t="s">
+      <c r="B284" s="1" t="s">
         <v>475</v>
       </c>
     </row>
@@ -4872,7 +4869,7 @@
       <c r="A285" t="s">
         <v>482</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="B285" s="1" t="s">
         <v>512</v>
       </c>
     </row>
@@ -4880,7 +4877,7 @@
       <c r="A286" t="s">
         <v>483</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="B286" s="1" t="s">
         <v>514</v>
       </c>
     </row>
@@ -4888,7 +4885,7 @@
       <c r="A287" t="s">
         <v>484</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B287" s="1" t="s">
         <v>513</v>
       </c>
     </row>
@@ -4912,7 +4909,7 @@
       <c r="A290" t="s">
         <v>487</v>
       </c>
-      <c r="B290" s="2" t="s">
+      <c r="B290" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4920,7 +4917,7 @@
       <c r="A291" t="s">
         <v>488</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B291" s="1" t="s">
         <v>515</v>
       </c>
     </row>
@@ -4928,7 +4925,7 @@
       <c r="A292" t="s">
         <v>489</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="B292" s="1" t="s">
         <v>516</v>
       </c>
     </row>
@@ -4936,7 +4933,7 @@
       <c r="A293" t="s">
         <v>490</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="B293" s="1" t="s">
         <v>517</v>
       </c>
     </row>
@@ -4944,7 +4941,7 @@
       <c r="A294" t="s">
         <v>491</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="1" t="s">
         <v>518</v>
       </c>
     </row>
@@ -4960,7 +4957,7 @@
       <c r="A296" t="s">
         <v>493</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="1" t="s">
         <v>519</v>
       </c>
     </row>
@@ -4968,7 +4965,7 @@
       <c r="A297" t="s">
         <v>494</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="1" t="s">
         <v>520</v>
       </c>
     </row>
@@ -4976,7 +4973,7 @@
       <c r="A298" t="s">
         <v>495</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="1" t="s">
         <v>521</v>
       </c>
     </row>
@@ -4984,7 +4981,7 @@
       <c r="A299" t="s">
         <v>496</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="1" t="s">
         <v>522</v>
       </c>
     </row>
@@ -4992,7 +4989,7 @@
       <c r="A300" t="s">
         <v>497</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="1" t="s">
         <v>523</v>
       </c>
     </row>
@@ -5000,7 +4997,7 @@
       <c r="A301" t="s">
         <v>498</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="1" t="s">
         <v>524</v>
       </c>
     </row>
@@ -5008,7 +5005,7 @@
       <c r="A302" t="s">
         <v>499</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="1" t="s">
         <v>525</v>
       </c>
     </row>
@@ -5016,7 +5013,7 @@
       <c r="A303" t="s">
         <v>500</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="1" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5024,7 +5021,7 @@
       <c r="A304" t="s">
         <v>501</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="1" t="s">
         <v>527</v>
       </c>
     </row>
@@ -5032,7 +5029,7 @@
       <c r="A305" t="s">
         <v>502</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="B305" s="3" t="s">
         <v>528</v>
       </c>
     </row>
@@ -5040,7 +5037,7 @@
       <c r="A306" t="s">
         <v>503</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="1" t="s">
         <v>529</v>
       </c>
     </row>
@@ -5048,7 +5045,7 @@
       <c r="A307" t="s">
         <v>504</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="1" t="s">
         <v>530</v>
       </c>
     </row>
@@ -5056,7 +5053,7 @@
       <c r="A308" t="s">
         <v>505</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="1" t="s">
         <v>531</v>
       </c>
     </row>
@@ -5064,7 +5061,7 @@
       <c r="A309" t="s">
         <v>506</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="1" t="s">
         <v>532</v>
       </c>
     </row>
@@ -5072,7 +5069,7 @@
       <c r="A310" t="s">
         <v>507</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="1" t="s">
         <v>533</v>
       </c>
     </row>
@@ -5080,7 +5077,7 @@
       <c r="A311" t="s">
         <v>508</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="1" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5096,13 +5093,13 @@
       <c r="A313" t="s">
         <v>510</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="1" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="7"/>
-      <c r="B314" s="7"/>
+      <c r="A314" s="8"/>
+      <c r="B314" s="8"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
@@ -5116,7 +5113,7 @@
       <c r="A316" t="s">
         <v>537</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="1" t="s">
         <v>566</v>
       </c>
     </row>
@@ -5140,7 +5137,7 @@
       <c r="A319" t="s">
         <v>540</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="1" t="s">
         <v>567</v>
       </c>
     </row>
@@ -5164,7 +5161,7 @@
       <c r="A322" t="s">
         <v>543</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="1" t="s">
         <v>568</v>
       </c>
     </row>
@@ -5172,7 +5169,7 @@
       <c r="A323" t="s">
         <v>544</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="1" t="s">
         <v>569</v>
       </c>
     </row>
@@ -5212,7 +5209,7 @@
       <c r="A328" t="s">
         <v>549</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="1" t="s">
         <v>570</v>
       </c>
     </row>
@@ -5220,7 +5217,7 @@
       <c r="A329" t="s">
         <v>550</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="1" t="s">
         <v>571</v>
       </c>
     </row>
@@ -5228,7 +5225,7 @@
       <c r="A330" t="s">
         <v>551</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="1" t="s">
         <v>572</v>
       </c>
     </row>
@@ -5236,7 +5233,7 @@
       <c r="A331" t="s">
         <v>552</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="1" t="s">
         <v>573</v>
       </c>
     </row>
@@ -5268,7 +5265,7 @@
       <c r="A335" t="s">
         <v>556</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="1" t="s">
         <v>574</v>
       </c>
     </row>
@@ -5276,7 +5273,7 @@
       <c r="A336" t="s">
         <v>557</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336" s="1" t="s">
         <v>575</v>
       </c>
     </row>
@@ -5284,7 +5281,7 @@
       <c r="A337" t="s">
         <v>558</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="1" t="s">
         <v>576</v>
       </c>
     </row>
@@ -5300,7 +5297,7 @@
       <c r="A339" t="s">
         <v>560</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="1" t="s">
         <v>577</v>
       </c>
     </row>
@@ -5308,7 +5305,7 @@
       <c r="A340" t="s">
         <v>561</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="1" t="s">
         <v>578</v>
       </c>
     </row>
@@ -5332,7 +5329,7 @@
       <c r="A343" t="s">
         <v>564</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="1" t="s">
         <v>579</v>
       </c>
     </row>
@@ -5340,13 +5337,13 @@
       <c r="A344" t="s">
         <v>565</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="1" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="7"/>
-      <c r="B345" s="7"/>
+      <c r="A345" s="8"/>
+      <c r="B345" s="8"/>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
@@ -5360,7 +5357,7 @@
       <c r="A347" t="s">
         <v>581</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="1" t="s">
         <v>611</v>
       </c>
     </row>
@@ -5376,7 +5373,7 @@
       <c r="A349" t="s">
         <v>583</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349" s="1" t="s">
         <v>612</v>
       </c>
     </row>
@@ -5384,7 +5381,7 @@
       <c r="A350" t="s">
         <v>584</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="B350" s="3" t="s">
         <v>613</v>
       </c>
     </row>
@@ -5392,7 +5389,7 @@
       <c r="A351" t="s">
         <v>585</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351" s="1" t="s">
         <v>614</v>
       </c>
     </row>
@@ -5400,7 +5397,7 @@
       <c r="A352" t="s">
         <v>586</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352" s="1" t="s">
         <v>615</v>
       </c>
     </row>
@@ -5408,7 +5405,7 @@
       <c r="A353" t="s">
         <v>587</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="1" t="s">
         <v>616</v>
       </c>
     </row>
@@ -5424,7 +5421,7 @@
       <c r="A355" t="s">
         <v>589</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355" s="1" t="s">
         <v>577</v>
       </c>
     </row>
@@ -5440,7 +5437,7 @@
       <c r="A357" t="s">
         <v>591</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357" s="1" t="s">
         <v>617</v>
       </c>
     </row>
@@ -5448,7 +5445,7 @@
       <c r="A358" t="s">
         <v>592</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358" s="1" t="s">
         <v>577</v>
       </c>
     </row>
@@ -5464,7 +5461,7 @@
       <c r="A360" t="s">
         <v>594</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360" s="1" t="s">
         <v>618</v>
       </c>
     </row>
@@ -5472,7 +5469,7 @@
       <c r="A361" t="s">
         <v>595</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361" s="1" t="s">
         <v>619</v>
       </c>
     </row>
@@ -5480,7 +5477,7 @@
       <c r="A362" t="s">
         <v>596</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362" s="1" t="s">
         <v>475</v>
       </c>
     </row>
@@ -5488,7 +5485,7 @@
       <c r="A363" t="s">
         <v>597</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363" s="1" t="s">
         <v>620</v>
       </c>
     </row>
@@ -5496,7 +5493,7 @@
       <c r="A364" t="s">
         <v>598</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364" s="1" t="s">
         <v>621</v>
       </c>
     </row>
@@ -5504,7 +5501,7 @@
       <c r="A365" t="s">
         <v>599</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365" s="1" t="s">
         <v>621</v>
       </c>
     </row>
@@ -5512,7 +5509,7 @@
       <c r="A366" t="s">
         <v>600</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B366" s="1" t="s">
         <v>622</v>
       </c>
     </row>
@@ -5520,7 +5517,7 @@
       <c r="A367" t="s">
         <v>601</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367" s="1" t="s">
         <v>623</v>
       </c>
     </row>
@@ -5528,7 +5525,7 @@
       <c r="A368" t="s">
         <v>602</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368" s="1" t="s">
         <v>623</v>
       </c>
     </row>
@@ -5536,7 +5533,7 @@
       <c r="A369" t="s">
         <v>603</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369" s="1" t="s">
         <v>624</v>
       </c>
     </row>
@@ -5544,7 +5541,7 @@
       <c r="A370" t="s">
         <v>604</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370" s="1" t="s">
         <v>625</v>
       </c>
     </row>
@@ -5552,7 +5549,7 @@
       <c r="A371" t="s">
         <v>605</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371" s="1" t="s">
         <v>626</v>
       </c>
     </row>
@@ -5560,7 +5557,7 @@
       <c r="A372" t="s">
         <v>606</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372" s="1" t="s">
         <v>627</v>
       </c>
     </row>
@@ -5568,7 +5565,7 @@
       <c r="A373" t="s">
         <v>607</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B373" s="1" t="s">
         <v>628</v>
       </c>
     </row>
@@ -5576,7 +5573,7 @@
       <c r="A374" t="s">
         <v>608</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B374" s="1" t="s">
         <v>629</v>
       </c>
     </row>
@@ -5597,11 +5594,16 @@
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="7"/>
-      <c r="B377" s="7"/>
+      <c r="A377" s="8"/>
+      <c r="B377" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A282:B282"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A345:B345"/>
+    <mergeCell ref="A377:B377"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
@@ -5613,11 +5615,6 @@
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A282:B282"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="A345:B345"/>
-    <mergeCell ref="A377:B377"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
